--- a/Accelerometer/calibration_data.xlsx
+++ b/Accelerometer/calibration_data.xlsx
@@ -70,12 +70,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -101,6 +107,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,14 +412,14 @@
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="53.42578125" customWidth="1"/>
@@ -450,11 +457,11 @@
         <v>17064.310077519382</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:D2" si="0">AVERAGE(C6:C153)</f>
+        <f>AVERAGE(C6:C153)</f>
         <v>-136.68217054263565</v>
       </c>
       <c r="D2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D6:D153)</f>
         <v>-4681.0852713178292</v>
       </c>
       <c r="J2" t="s">
@@ -462,7 +469,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -479,7 +486,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
